--- a/US/data/BTS/TRPT/Flights.xlsx
+++ b/US/data/BTS/TRPT/Flights.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4404,13 +4404,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>435347</v>
+        <v>441660</v>
       </c>
       <c r="D234" t="n">
-        <v>28294</v>
+        <v>28447</v>
       </c>
       <c r="E234" t="n">
-        <v>463641</v>
+        <v>470107</v>
       </c>
     </row>
     <row r="235">
@@ -4489,13 +4489,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5163292</v>
+        <v>5169605</v>
       </c>
       <c r="D239" t="n">
-        <v>577629</v>
+        <v>577782</v>
       </c>
       <c r="E239" t="n">
-        <v>5740921</v>
+        <v>5747387</v>
       </c>
     </row>
     <row r="240">
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>446597</v>
+        <v>408891</v>
       </c>
       <c r="D240" t="n">
-        <v>61458</v>
+        <v>56760</v>
       </c>
       <c r="E240" t="n">
-        <v>508055</v>
+        <v>465651</v>
       </c>
     </row>
     <row r="241">
@@ -4528,10 +4528,10 @@
         <v>361719</v>
       </c>
       <c r="D241" t="n">
-        <v>45921</v>
+        <v>45722</v>
       </c>
       <c r="E241" t="n">
-        <v>407640</v>
+        <v>407441</v>
       </c>
     </row>
     <row r="242">
@@ -4545,10 +4545,10 @@
         <v>499419</v>
       </c>
       <c r="D242" t="n">
-        <v>53893</v>
+        <v>53658</v>
       </c>
       <c r="E242" t="n">
-        <v>553312</v>
+        <v>553077</v>
       </c>
     </row>
     <row r="243">
@@ -4562,10 +4562,10 @@
         <v>514307</v>
       </c>
       <c r="D243" t="n">
-        <v>55298</v>
+        <v>55108</v>
       </c>
       <c r="E243" t="n">
-        <v>569605</v>
+        <v>569415</v>
       </c>
     </row>
     <row r="244">
@@ -4579,10 +4579,10 @@
         <v>565829</v>
       </c>
       <c r="D244" t="n">
-        <v>61937</v>
+        <v>61806</v>
       </c>
       <c r="E244" t="n">
-        <v>627766</v>
+        <v>627635</v>
       </c>
     </row>
     <row r="245">
@@ -4593,13 +4593,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>617809</v>
+        <v>617825</v>
       </c>
       <c r="D245" t="n">
-        <v>71391</v>
+        <v>71233</v>
       </c>
       <c r="E245" t="n">
-        <v>689200</v>
+        <v>689058</v>
       </c>
     </row>
     <row r="246">
@@ -4610,13 +4610,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>667525</v>
+        <v>664438</v>
       </c>
       <c r="D246" t="n">
-        <v>78941</v>
+        <v>78934</v>
       </c>
       <c r="E246" t="n">
-        <v>746466</v>
+        <v>743372</v>
       </c>
     </row>
     <row r="247">
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>660521</v>
+        <v>661984</v>
       </c>
       <c r="D247" t="n">
-        <v>79753</v>
+        <v>79873</v>
       </c>
       <c r="E247" t="n">
-        <v>740274</v>
+        <v>741857</v>
       </c>
     </row>
     <row r="248">
@@ -4644,13 +4644,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>608942</v>
+        <v>610270</v>
       </c>
       <c r="D248" t="n">
-        <v>71361</v>
+        <v>72964</v>
       </c>
       <c r="E248" t="n">
-        <v>680303</v>
+        <v>683234</v>
       </c>
     </row>
     <row r="249">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>628810</v>
+        <v>630163</v>
       </c>
       <c r="D249" t="n">
-        <v>77544</v>
+        <v>79136</v>
       </c>
       <c r="E249" t="n">
-        <v>706354</v>
+        <v>709299</v>
       </c>
     </row>
     <row r="250">
@@ -4678,13 +4678,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>616346</v>
+        <v>617744</v>
       </c>
       <c r="D250" t="n">
-        <v>78428</v>
+        <v>83961</v>
       </c>
       <c r="E250" t="n">
-        <v>694774</v>
+        <v>701705</v>
       </c>
     </row>
     <row r="251">
@@ -4695,13 +4695,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>604042</v>
+        <v>605852</v>
       </c>
       <c r="D251" t="n">
-        <v>91194</v>
+        <v>94171</v>
       </c>
       <c r="E251" t="n">
-        <v>695236</v>
+        <v>700023</v>
       </c>
     </row>
     <row r="252">
@@ -4712,17 +4712,87 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6791866</v>
+        <v>6758441</v>
       </c>
       <c r="D252" t="n">
-        <v>827119</v>
+        <v>833326</v>
       </c>
       <c r="E252" t="n">
-        <v>7618985</v>
+        <v>7591767</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>569271</v>
+      </c>
+      <c r="D253" t="n">
+        <v>93211</v>
+      </c>
+      <c r="E253" t="n">
+        <v>662482</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>532524</v>
+      </c>
+      <c r="D254" t="n">
+        <v>81222</v>
+      </c>
+      <c r="E254" t="n">
+        <v>613746</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>625664</v>
+      </c>
+      <c r="D255" t="n">
+        <v>95505</v>
+      </c>
+      <c r="E255" t="n">
+        <v>721169</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1727459</v>
+      </c>
+      <c r="D256" t="n">
+        <v>269938</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1997397</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="A19:A31"/>
@@ -4743,6 +4813,7 @@
     <mergeCell ref="A214:A226"/>
     <mergeCell ref="A227:A239"/>
     <mergeCell ref="A240:A252"/>
+    <mergeCell ref="A253:A256"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/US/data/BTS/TRPT/Flights.xlsx
+++ b/US/data/BTS/TRPT/Flights.xlsx
@@ -424,13 +424,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>815489</v>
+        <v>48054917</v>
       </c>
       <c r="D2" t="n">
-        <v>92565</v>
+        <v>9578435</v>
       </c>
       <c r="E2" t="n">
-        <v>908054</v>
+        <v>57633352</v>
       </c>
     </row>
     <row r="3">
@@ -441,13 +441,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>766775</v>
+        <v>44850246</v>
       </c>
       <c r="D3" t="n">
-        <v>91342</v>
+        <v>9016535</v>
       </c>
       <c r="E3" t="n">
-        <v>858117</v>
+        <v>53866781</v>
       </c>
     </row>
     <row r="4">
@@ -458,13 +458,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>782175</v>
+        <v>49684353</v>
       </c>
       <c r="D4" t="n">
-        <v>96881</v>
+        <v>10038794</v>
       </c>
       <c r="E4" t="n">
-        <v>879056</v>
+        <v>59723147</v>
       </c>
     </row>
     <row r="5">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8085083</v>
+        <v>551899643</v>
       </c>
       <c r="D5" t="n">
-        <v>1023994</v>
+        <v>118704850</v>
       </c>
       <c r="E5" t="n">
-        <v>9109077</v>
+        <v>670604493</v>
       </c>
     </row>
     <row r="6">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>785651</v>
+        <v>43032450</v>
       </c>
       <c r="D6" t="n">
-        <v>98053</v>
+        <v>9726436</v>
       </c>
       <c r="E6" t="n">
-        <v>883704</v>
+        <v>52758886</v>
       </c>
     </row>
     <row r="7">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>690750</v>
+        <v>41166780</v>
       </c>
       <c r="D7" t="n">
-        <v>85965</v>
+        <v>8283372</v>
       </c>
       <c r="E7" t="n">
-        <v>776715</v>
+        <v>49450152</v>
       </c>
     </row>
     <row r="8">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>797634</v>
+        <v>49992700</v>
       </c>
       <c r="D8" t="n">
-        <v>97929</v>
+        <v>9538653</v>
       </c>
       <c r="E8" t="n">
-        <v>895563</v>
+        <v>59531353</v>
       </c>
     </row>
     <row r="9">
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>766639</v>
+        <v>47033260</v>
       </c>
       <c r="D9" t="n">
-        <v>89398</v>
+        <v>8309305</v>
       </c>
       <c r="E9" t="n">
-        <v>856037</v>
+        <v>55342565</v>
       </c>
     </row>
     <row r="10">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>789857</v>
+        <v>49152352</v>
       </c>
       <c r="D10" t="n">
-        <v>87671</v>
+        <v>8801873</v>
       </c>
       <c r="E10" t="n">
-        <v>877528</v>
+        <v>57954225</v>
       </c>
     </row>
     <row r="11">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>798841</v>
+        <v>52209516</v>
       </c>
       <c r="D11" t="n">
-        <v>95435</v>
+        <v>10347900</v>
       </c>
       <c r="E11" t="n">
-        <v>894276</v>
+        <v>62557416</v>
       </c>
     </row>
     <row r="12">
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>832075</v>
+        <v>55810773</v>
       </c>
       <c r="D12" t="n">
-        <v>102795</v>
+        <v>11705206</v>
       </c>
       <c r="E12" t="n">
-        <v>934870</v>
+        <v>67515979</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>831185</v>
+        <v>53920973</v>
       </c>
       <c r="D13" t="n">
-        <v>102145</v>
+        <v>11799672</v>
       </c>
       <c r="E13" t="n">
-        <v>933330</v>
+        <v>65720645</v>
       </c>
     </row>
     <row r="14">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>782264</v>
+        <v>44213408</v>
       </c>
       <c r="D14" t="n">
-        <v>90681</v>
+        <v>9454647</v>
       </c>
       <c r="E14" t="n">
-        <v>872945</v>
+        <v>53668055</v>
       </c>
     </row>
     <row r="15">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>818777</v>
+        <v>49944935</v>
       </c>
       <c r="D15" t="n">
-        <v>91820</v>
+        <v>9608358</v>
       </c>
       <c r="E15" t="n">
-        <v>910597</v>
+        <v>59553293</v>
       </c>
     </row>
     <row r="16">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>766266</v>
+        <v>47059495</v>
       </c>
       <c r="D16" t="n">
-        <v>91004</v>
+        <v>9481886</v>
       </c>
       <c r="E16" t="n">
-        <v>857270</v>
+        <v>56541381</v>
       </c>
     </row>
     <row r="17">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>798879</v>
+        <v>49757124</v>
       </c>
       <c r="D17" t="n">
-        <v>97094</v>
+        <v>10512547</v>
       </c>
       <c r="E17" t="n">
-        <v>895973</v>
+        <v>60269671</v>
       </c>
     </row>
     <row r="18">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9458818</v>
+        <v>583293766</v>
       </c>
       <c r="D18" t="n">
-        <v>1129990</v>
+        <v>117569855</v>
       </c>
       <c r="E18" t="n">
-        <v>10588808</v>
+        <v>700863621</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>787719</v>
+        <v>43815481</v>
       </c>
       <c r="D19" t="n">
-        <v>98671</v>
+        <v>10252443</v>
       </c>
       <c r="E19" t="n">
-        <v>886390</v>
+        <v>54067924</v>
       </c>
     </row>
     <row r="20">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>762038</v>
+        <v>45306644</v>
       </c>
       <c r="D20" t="n">
-        <v>92915</v>
+        <v>9310317</v>
       </c>
       <c r="E20" t="n">
-        <v>854953</v>
+        <v>54616961</v>
       </c>
     </row>
     <row r="21">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>834912</v>
+        <v>54147227</v>
       </c>
       <c r="D21" t="n">
-        <v>101541</v>
+        <v>10976440</v>
       </c>
       <c r="E21" t="n">
-        <v>936453</v>
+        <v>65123667</v>
       </c>
     </row>
     <row r="22">
@@ -768,13 +768,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>818293</v>
+        <v>53253194</v>
       </c>
       <c r="D22" t="n">
-        <v>100027</v>
+        <v>10802022</v>
       </c>
       <c r="E22" t="n">
-        <v>918320</v>
+        <v>64055216</v>
       </c>
     </row>
     <row r="23">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>833861</v>
+        <v>53030873</v>
       </c>
       <c r="D23" t="n">
-        <v>102602</v>
+        <v>10971254</v>
       </c>
       <c r="E23" t="n">
-        <v>936463</v>
+        <v>64002127</v>
       </c>
     </row>
     <row r="24">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>837451</v>
+        <v>56959142</v>
       </c>
       <c r="D24" t="n">
-        <v>104769</v>
+        <v>12159514</v>
       </c>
       <c r="E24" t="n">
-        <v>942220</v>
+        <v>69118656</v>
       </c>
     </row>
     <row r="25">
@@ -819,13 +819,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>871526</v>
+        <v>59614287</v>
       </c>
       <c r="D25" t="n">
-        <v>113956</v>
+        <v>13502913</v>
       </c>
       <c r="E25" t="n">
-        <v>985482</v>
+        <v>73117200</v>
       </c>
     </row>
     <row r="26">
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>883458</v>
+        <v>57380873</v>
       </c>
       <c r="D26" t="n">
-        <v>112497</v>
+        <v>13203566</v>
       </c>
       <c r="E26" t="n">
-        <v>995955</v>
+        <v>70584439</v>
       </c>
     </row>
     <row r="27">
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>819715</v>
+        <v>47671785</v>
       </c>
       <c r="D27" t="n">
-        <v>96493</v>
+        <v>10570682</v>
       </c>
       <c r="E27" t="n">
-        <v>916208</v>
+        <v>58242467</v>
       </c>
     </row>
     <row r="28">
@@ -870,13 +870,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>861739</v>
+        <v>54167489</v>
       </c>
       <c r="D28" t="n">
-        <v>97757</v>
+        <v>10772177</v>
       </c>
       <c r="E28" t="n">
-        <v>959496</v>
+        <v>64939666</v>
       </c>
     </row>
     <row r="29">
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>820586</v>
+        <v>51782564</v>
       </c>
       <c r="D29" t="n">
-        <v>96169</v>
+        <v>10174320</v>
       </c>
       <c r="E29" t="n">
-        <v>916755</v>
+        <v>61956884</v>
       </c>
     </row>
     <row r="30">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>836749</v>
+        <v>52640057</v>
       </c>
       <c r="D30" t="n">
-        <v>103282</v>
+        <v>11244427</v>
       </c>
       <c r="E30" t="n">
-        <v>940031</v>
+        <v>63884484</v>
       </c>
     </row>
     <row r="31">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9968047</v>
+        <v>629769616</v>
       </c>
       <c r="D31" t="n">
-        <v>1220679</v>
+        <v>133940075</v>
       </c>
       <c r="E31" t="n">
-        <v>11188726</v>
+        <v>763709691</v>
       </c>
     </row>
     <row r="32">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>807817</v>
+        <v>47977657</v>
       </c>
       <c r="D32" t="n">
-        <v>104435</v>
+        <v>11387275</v>
       </c>
       <c r="E32" t="n">
-        <v>912252</v>
+        <v>59364932</v>
       </c>
     </row>
     <row r="33">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>761366</v>
+        <v>47074882</v>
       </c>
       <c r="D33" t="n">
-        <v>94597</v>
+        <v>9945067</v>
       </c>
       <c r="E33" t="n">
-        <v>855963</v>
+        <v>57019949</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>867055</v>
+        <v>58838975</v>
       </c>
       <c r="D34" t="n">
-        <v>108324</v>
+        <v>12479643</v>
       </c>
       <c r="E34" t="n">
-        <v>975379</v>
+        <v>71318618</v>
       </c>
     </row>
     <row r="35">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>838535</v>
+        <v>54908859</v>
       </c>
       <c r="D35" t="n">
-        <v>105103</v>
+        <v>11521174</v>
       </c>
       <c r="E35" t="n">
-        <v>943638</v>
+        <v>66430033</v>
       </c>
     </row>
     <row r="36">
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>873425</v>
+        <v>57323876</v>
       </c>
       <c r="D36" t="n">
-        <v>108663</v>
+        <v>12164600</v>
       </c>
       <c r="E36" t="n">
-        <v>982088</v>
+        <v>69488476</v>
       </c>
     </row>
     <row r="37">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>863921</v>
+        <v>59724061</v>
       </c>
       <c r="D37" t="n">
-        <v>110219</v>
+        <v>13140061</v>
       </c>
       <c r="E37" t="n">
-        <v>974140</v>
+        <v>72864122</v>
       </c>
     </row>
     <row r="38">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>887493</v>
+        <v>62396446</v>
       </c>
       <c r="D38" t="n">
-        <v>118188</v>
+        <v>14421209</v>
       </c>
       <c r="E38" t="n">
-        <v>1005681</v>
+        <v>76817655</v>
       </c>
     </row>
     <row r="39">
@@ -1059,13 +1059,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>891350</v>
+        <v>59110633</v>
       </c>
       <c r="D39" t="n">
-        <v>116031</v>
+        <v>13703334</v>
       </c>
       <c r="E39" t="n">
-        <v>1007381</v>
+        <v>72813967</v>
       </c>
     </row>
     <row r="40">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>815316</v>
+        <v>50600325</v>
       </c>
       <c r="D40" t="n">
-        <v>101031</v>
+        <v>11325800</v>
       </c>
       <c r="E40" t="n">
-        <v>916347</v>
+        <v>61926125</v>
       </c>
     </row>
     <row r="41">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>831717</v>
+        <v>53738093</v>
       </c>
       <c r="D41" t="n">
-        <v>99765</v>
+        <v>11107586</v>
       </c>
       <c r="E41" t="n">
-        <v>931482</v>
+        <v>64845679</v>
       </c>
     </row>
     <row r="42">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>797856</v>
+        <v>52766404</v>
       </c>
       <c r="D42" t="n">
-        <v>96426</v>
+        <v>10580099</v>
       </c>
       <c r="E42" t="n">
-        <v>894282</v>
+        <v>63346503</v>
       </c>
     </row>
     <row r="43">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>802522</v>
+        <v>52801276</v>
       </c>
       <c r="D43" t="n">
-        <v>104899</v>
+        <v>11812574</v>
       </c>
       <c r="E43" t="n">
-        <v>907421</v>
+        <v>64613850</v>
       </c>
     </row>
     <row r="44">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10038373</v>
+        <v>657261487</v>
       </c>
       <c r="D44" t="n">
-        <v>1267681</v>
+        <v>143588422</v>
       </c>
       <c r="E44" t="n">
-        <v>11306054</v>
+        <v>800849909</v>
       </c>
     </row>
     <row r="45">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>785817</v>
+        <v>48886043</v>
       </c>
       <c r="D45" t="n">
-        <v>106320</v>
+        <v>11724098</v>
       </c>
       <c r="E45" t="n">
-        <v>892137</v>
+        <v>60610141</v>
       </c>
     </row>
     <row r="46">
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>716229</v>
+        <v>47348142</v>
       </c>
       <c r="D46" t="n">
-        <v>96254</v>
+        <v>10167275</v>
       </c>
       <c r="E46" t="n">
-        <v>812483</v>
+        <v>57515417</v>
       </c>
     </row>
     <row r="47">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>824241</v>
+        <v>58286011</v>
       </c>
       <c r="D47" t="n">
-        <v>110615</v>
+        <v>12707241</v>
       </c>
       <c r="E47" t="n">
-        <v>934856</v>
+        <v>70993252</v>
       </c>
     </row>
     <row r="48">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>794799</v>
+        <v>55828555</v>
       </c>
       <c r="D48" t="n">
-        <v>107878</v>
+        <v>12619137</v>
       </c>
       <c r="E48" t="n">
-        <v>902677</v>
+        <v>68447692</v>
       </c>
     </row>
     <row r="49">
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>824452</v>
+        <v>57145193</v>
       </c>
       <c r="D49" t="n">
-        <v>108911</v>
+        <v>12610793</v>
       </c>
       <c r="E49" t="n">
-        <v>933363</v>
+        <v>69755986</v>
       </c>
     </row>
     <row r="50">
@@ -1248,13 +1248,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>820712</v>
+        <v>59297121</v>
       </c>
       <c r="D50" t="n">
-        <v>111788</v>
+        <v>13690835</v>
       </c>
       <c r="E50" t="n">
-        <v>932500</v>
+        <v>72987956</v>
       </c>
     </row>
     <row r="51">
@@ -1265,13 +1265,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>852500</v>
+        <v>60838606</v>
       </c>
       <c r="D51" t="n">
-        <v>119813</v>
+        <v>14912621</v>
       </c>
       <c r="E51" t="n">
-        <v>972313</v>
+        <v>75751227</v>
       </c>
     </row>
     <row r="52">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>866941</v>
+        <v>58303233</v>
       </c>
       <c r="D52" t="n">
-        <v>118451</v>
+        <v>14171796</v>
       </c>
       <c r="E52" t="n">
-        <v>985392</v>
+        <v>72475029</v>
       </c>
     </row>
     <row r="53">
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>800175</v>
+        <v>49949551</v>
       </c>
       <c r="D53" t="n">
-        <v>104855</v>
+        <v>12010922</v>
       </c>
       <c r="E53" t="n">
-        <v>905030</v>
+        <v>61960473</v>
       </c>
     </row>
     <row r="54">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>828582</v>
+        <v>55088986</v>
       </c>
       <c r="D54" t="n">
-        <v>103471</v>
+        <v>11517228</v>
       </c>
       <c r="E54" t="n">
-        <v>932053</v>
+        <v>66606214</v>
       </c>
     </row>
     <row r="55">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>792846</v>
+        <v>53852209</v>
       </c>
       <c r="D55" t="n">
-        <v>100564</v>
+        <v>11222687</v>
       </c>
       <c r="E55" t="n">
-        <v>893410</v>
+        <v>65074896</v>
       </c>
     </row>
     <row r="56">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>805456</v>
+        <v>53538970</v>
       </c>
       <c r="D56" t="n">
-        <v>110289</v>
+        <v>12385958</v>
       </c>
       <c r="E56" t="n">
-        <v>915745</v>
+        <v>65924928</v>
       </c>
     </row>
     <row r="57">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9712750</v>
+        <v>658362620</v>
       </c>
       <c r="D57" t="n">
-        <v>1299209</v>
+        <v>149740591</v>
       </c>
       <c r="E57" t="n">
-        <v>11011959</v>
+        <v>808103211</v>
       </c>
     </row>
     <row r="58">
@@ -1386,13 +1386,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>804290</v>
+        <v>50022168</v>
       </c>
       <c r="D58" t="n">
-        <v>110453</v>
+        <v>12072442</v>
       </c>
       <c r="E58" t="n">
-        <v>914743</v>
+        <v>62094610</v>
       </c>
     </row>
     <row r="59">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>724968</v>
+        <v>47766421</v>
       </c>
       <c r="D59" t="n">
-        <v>99896</v>
+        <v>10591580</v>
       </c>
       <c r="E59" t="n">
-        <v>824864</v>
+        <v>58358001</v>
       </c>
     </row>
     <row r="60">
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>830718</v>
+        <v>59244232</v>
       </c>
       <c r="D60" t="n">
-        <v>114004</v>
+        <v>13247375</v>
       </c>
       <c r="E60" t="n">
-        <v>944722</v>
+        <v>72491607</v>
       </c>
     </row>
     <row r="61">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>809999</v>
+        <v>57398267</v>
       </c>
       <c r="D61" t="n">
-        <v>110511</v>
+        <v>12795517</v>
       </c>
       <c r="E61" t="n">
-        <v>920510</v>
+        <v>70193784</v>
       </c>
     </row>
     <row r="62">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>844412</v>
+        <v>59285571</v>
       </c>
       <c r="D62" t="n">
-        <v>111809</v>
+        <v>12972589</v>
       </c>
       <c r="E62" t="n">
-        <v>956221</v>
+        <v>72258160</v>
       </c>
     </row>
     <row r="63">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>832520</v>
+        <v>61493934</v>
       </c>
       <c r="D63" t="n">
-        <v>114555</v>
+        <v>14170877</v>
       </c>
       <c r="E63" t="n">
-        <v>947075</v>
+        <v>75664811</v>
       </c>
     </row>
     <row r="64">
@@ -1488,13 +1488,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>864001</v>
+        <v>63457403</v>
       </c>
       <c r="D64" t="n">
-        <v>122527</v>
+        <v>15470687</v>
       </c>
       <c r="E64" t="n">
-        <v>986528</v>
+        <v>78928090</v>
       </c>
     </row>
     <row r="65">
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>872656</v>
+        <v>62660179</v>
       </c>
       <c r="D65" t="n">
-        <v>121949</v>
+        <v>15131296</v>
       </c>
       <c r="E65" t="n">
-        <v>994605</v>
+        <v>77791475</v>
       </c>
     </row>
     <row r="66">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>805360</v>
+        <v>52310402</v>
       </c>
       <c r="D66" t="n">
-        <v>106044</v>
+        <v>12332434</v>
       </c>
       <c r="E66" t="n">
-        <v>911404</v>
+        <v>64642836</v>
       </c>
     </row>
     <row r="67">
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>841460</v>
+        <v>57208618</v>
       </c>
       <c r="D67" t="n">
-        <v>106443</v>
+        <v>12392938</v>
       </c>
       <c r="E67" t="n">
-        <v>947903</v>
+        <v>69601556</v>
       </c>
     </row>
     <row r="68">
@@ -1556,13 +1556,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>804957</v>
+        <v>55047116</v>
       </c>
       <c r="D68" t="n">
-        <v>104662</v>
+        <v>12023481</v>
       </c>
       <c r="E68" t="n">
-        <v>909619</v>
+        <v>67070597</v>
       </c>
     </row>
     <row r="69">
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>804237</v>
+        <v>53291139</v>
       </c>
       <c r="D69" t="n">
-        <v>113110</v>
+        <v>13123756</v>
       </c>
       <c r="E69" t="n">
-        <v>917347</v>
+        <v>66414895</v>
       </c>
     </row>
     <row r="70">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9839578</v>
+        <v>679185450</v>
       </c>
       <c r="D70" t="n">
-        <v>1335963</v>
+        <v>156324972</v>
       </c>
       <c r="E70" t="n">
-        <v>11175541</v>
+        <v>835510422</v>
       </c>
     </row>
     <row r="71">
@@ -1609,13 +1609,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>793595</v>
+        <v>50245100</v>
       </c>
       <c r="D71" t="n">
-        <v>113045</v>
+        <v>12794514</v>
       </c>
       <c r="E71" t="n">
-        <v>906640</v>
+        <v>63039614</v>
       </c>
     </row>
     <row r="72">
@@ -1626,13 +1626,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>746895</v>
+        <v>50118363</v>
       </c>
       <c r="D72" t="n">
-        <v>106644</v>
+        <v>11677400</v>
       </c>
       <c r="E72" t="n">
-        <v>853539</v>
+        <v>61795763</v>
       </c>
     </row>
     <row r="73">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>817736</v>
+        <v>59213077</v>
       </c>
       <c r="D73" t="n">
-        <v>117470</v>
+        <v>14221964</v>
       </c>
       <c r="E73" t="n">
-        <v>935206</v>
+        <v>73435041</v>
       </c>
     </row>
     <row r="74">
@@ -1660,13 +1660,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>799847</v>
+        <v>55611053</v>
       </c>
       <c r="D74" t="n">
-        <v>113495</v>
+        <v>12983854</v>
       </c>
       <c r="E74" t="n">
-        <v>913342</v>
+        <v>68594907</v>
       </c>
     </row>
     <row r="75">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>820332</v>
+        <v>58047400</v>
       </c>
       <c r="D75" t="n">
-        <v>114686</v>
+        <v>13628619</v>
       </c>
       <c r="E75" t="n">
-        <v>935018</v>
+        <v>71676019</v>
       </c>
     </row>
     <row r="76">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>816138</v>
+        <v>59559171</v>
       </c>
       <c r="D76" t="n">
-        <v>116272</v>
+        <v>14447504</v>
       </c>
       <c r="E76" t="n">
-        <v>932410</v>
+        <v>74006675</v>
       </c>
     </row>
     <row r="77">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>844962</v>
+        <v>61401480</v>
       </c>
       <c r="D77" t="n">
-        <v>122974</v>
+        <v>15488628</v>
       </c>
       <c r="E77" t="n">
-        <v>967936</v>
+        <v>76890108</v>
       </c>
     </row>
     <row r="78">
@@ -1728,13 +1728,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>823729</v>
+        <v>58966473</v>
       </c>
       <c r="D78" t="n">
-        <v>121976</v>
+        <v>15369492</v>
       </c>
       <c r="E78" t="n">
-        <v>945705</v>
+        <v>74335965</v>
       </c>
     </row>
     <row r="79">
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>728544</v>
+        <v>47680101</v>
       </c>
       <c r="D79" t="n">
-        <v>101441</v>
+        <v>11759694</v>
       </c>
       <c r="E79" t="n">
-        <v>829985</v>
+        <v>59439795</v>
       </c>
     </row>
     <row r="80">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>758740</v>
+        <v>52956023</v>
       </c>
       <c r="D80" t="n">
-        <v>102984</v>
+        <v>11952515</v>
       </c>
       <c r="E80" t="n">
-        <v>861724</v>
+        <v>64908538</v>
       </c>
     </row>
     <row r="81">
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>707430</v>
+        <v>47658141</v>
       </c>
       <c r="D81" t="n">
-        <v>100507</v>
+        <v>11288311</v>
       </c>
       <c r="E81" t="n">
-        <v>807937</v>
+        <v>58946452</v>
       </c>
     </row>
     <row r="82">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>720279</v>
+        <v>50253800</v>
       </c>
       <c r="D82" t="n">
-        <v>107283</v>
+        <v>12499216</v>
       </c>
       <c r="E82" t="n">
-        <v>827562</v>
+        <v>62753016</v>
       </c>
     </row>
     <row r="83">
@@ -1813,13 +1813,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9378227</v>
+        <v>651710182</v>
       </c>
       <c r="D83" t="n">
-        <v>1338777</v>
+        <v>158111711</v>
       </c>
       <c r="E83" t="n">
-        <v>10717004</v>
+        <v>809821893</v>
       </c>
     </row>
     <row r="84">
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>710155</v>
+        <v>44825056</v>
       </c>
       <c r="D84" t="n">
-        <v>109016</v>
+        <v>12075267</v>
       </c>
       <c r="E84" t="n">
-        <v>819171</v>
+        <v>56900323</v>
       </c>
     </row>
     <row r="85">
@@ -1849,13 +1849,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>660098</v>
+        <v>43680328</v>
       </c>
       <c r="D85" t="n">
-        <v>98596</v>
+        <v>10412676</v>
       </c>
       <c r="E85" t="n">
-        <v>758694</v>
+        <v>54093004</v>
       </c>
     </row>
     <row r="86">
@@ -1866,13 +1866,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>747568</v>
+        <v>53534891</v>
       </c>
       <c r="D86" t="n">
-        <v>111898</v>
+        <v>12508793</v>
       </c>
       <c r="E86" t="n">
-        <v>859466</v>
+        <v>66043684</v>
       </c>
     </row>
     <row r="87">
@@ -1883,13 +1883,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>729067</v>
+        <v>52247781</v>
       </c>
       <c r="D87" t="n">
-        <v>108439</v>
+        <v>12629805</v>
       </c>
       <c r="E87" t="n">
-        <v>837506</v>
+        <v>64877586</v>
       </c>
     </row>
     <row r="88">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>749196</v>
+        <v>52951246</v>
       </c>
       <c r="D88" t="n">
-        <v>99434</v>
+        <v>11806548</v>
       </c>
       <c r="E88" t="n">
-        <v>848630</v>
+        <v>64757794</v>
       </c>
     </row>
     <row r="89">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>760357</v>
+        <v>55898027</v>
       </c>
       <c r="D89" t="n">
-        <v>106627</v>
+        <v>13199636</v>
       </c>
       <c r="E89" t="n">
-        <v>866984</v>
+        <v>69097663</v>
       </c>
     </row>
     <row r="90">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>794188</v>
+        <v>59468957</v>
       </c>
       <c r="D90" t="n">
-        <v>115443</v>
+        <v>14953615</v>
       </c>
       <c r="E90" t="n">
-        <v>909631</v>
+        <v>74422572</v>
       </c>
     </row>
     <row r="91">
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>781510</v>
+        <v>56568180</v>
       </c>
       <c r="D91" t="n">
-        <v>113768</v>
+        <v>14844821</v>
       </c>
       <c r="E91" t="n">
-        <v>895278</v>
+        <v>71413001</v>
       </c>
     </row>
     <row r="92">
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>709954</v>
+        <v>48235025</v>
       </c>
       <c r="D92" t="n">
-        <v>97400</v>
+        <v>11659775</v>
       </c>
       <c r="E92" t="n">
-        <v>807354</v>
+        <v>59894800</v>
       </c>
     </row>
     <row r="93">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>726799</v>
+        <v>52279405</v>
       </c>
       <c r="D93" t="n">
-        <v>98788</v>
+        <v>11905529</v>
       </c>
       <c r="E93" t="n">
-        <v>825587</v>
+        <v>64184934</v>
       </c>
     </row>
     <row r="94">
@@ -2002,13 +2002,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>694945</v>
+        <v>48584832</v>
       </c>
       <c r="D94" t="n">
-        <v>97589</v>
+        <v>11093714</v>
       </c>
       <c r="E94" t="n">
-        <v>792534</v>
+        <v>59678546</v>
       </c>
     </row>
     <row r="95">
@@ -2019,13 +2019,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>705101</v>
+        <v>49793527</v>
       </c>
       <c r="D95" t="n">
-        <v>106367</v>
+        <v>12659154</v>
       </c>
       <c r="E95" t="n">
-        <v>811468</v>
+        <v>62452681</v>
       </c>
     </row>
     <row r="96">
@@ -2036,13 +2036,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8768938</v>
+        <v>618067255</v>
       </c>
       <c r="D96" t="n">
-        <v>1263365</v>
+        <v>149749333</v>
       </c>
       <c r="E96" t="n">
-        <v>10032303</v>
+        <v>767816588</v>
       </c>
     </row>
     <row r="97">
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>695109</v>
+        <v>45501620</v>
       </c>
       <c r="D97" t="n">
-        <v>108804</v>
+        <v>12393439</v>
       </c>
       <c r="E97" t="n">
-        <v>803913</v>
+        <v>57895059</v>
       </c>
     </row>
     <row r="98">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>623211</v>
+        <v>42440614</v>
       </c>
       <c r="D98" t="n">
-        <v>96264</v>
+        <v>10694165</v>
       </c>
       <c r="E98" t="n">
-        <v>719475</v>
+        <v>53134779</v>
       </c>
     </row>
     <row r="99">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>740135</v>
+        <v>54424077</v>
       </c>
       <c r="D99" t="n">
-        <v>111927</v>
+        <v>13279320</v>
       </c>
       <c r="E99" t="n">
-        <v>852062</v>
+        <v>67703397</v>
       </c>
     </row>
     <row r="100">
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>722797</v>
+        <v>52498074</v>
       </c>
       <c r="D100" t="n">
-        <v>106640</v>
+        <v>12398700</v>
       </c>
       <c r="E100" t="n">
-        <v>829437</v>
+        <v>64896774</v>
       </c>
     </row>
     <row r="101">
@@ -2123,13 +2123,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>741802</v>
+        <v>53842422</v>
       </c>
       <c r="D101" t="n">
-        <v>110374</v>
+        <v>13380664</v>
       </c>
       <c r="E101" t="n">
-        <v>852176</v>
+        <v>67223086</v>
       </c>
     </row>
     <row r="102">
@@ -2140,13 +2140,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>751554</v>
+        <v>56689853</v>
       </c>
       <c r="D102" t="n">
-        <v>113690</v>
+        <v>14406776</v>
       </c>
       <c r="E102" t="n">
-        <v>865244</v>
+        <v>71096629</v>
       </c>
     </row>
     <row r="103">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>782645</v>
+        <v>59142493</v>
       </c>
       <c r="D103" t="n">
-        <v>122866</v>
+        <v>16026852</v>
       </c>
       <c r="E103" t="n">
-        <v>905511</v>
+        <v>75169345</v>
       </c>
     </row>
     <row r="104">
@@ -2174,13 +2174,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>781584</v>
+        <v>57370748</v>
       </c>
       <c r="D104" t="n">
-        <v>117795</v>
+        <v>15317926</v>
       </c>
       <c r="E104" t="n">
-        <v>899379</v>
+        <v>72688674</v>
       </c>
     </row>
     <row r="105">
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>718801</v>
+        <v>50304708</v>
       </c>
       <c r="D105" t="n">
-        <v>100656</v>
+        <v>12599149</v>
       </c>
       <c r="E105" t="n">
-        <v>819457</v>
+        <v>62903857</v>
       </c>
     </row>
     <row r="106">
@@ -2208,13 +2208,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>737409</v>
+        <v>54826050</v>
       </c>
       <c r="D106" t="n">
-        <v>103417</v>
+        <v>12874707</v>
       </c>
       <c r="E106" t="n">
-        <v>840826</v>
+        <v>67700757</v>
       </c>
     </row>
     <row r="107">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>704530</v>
+        <v>51420519</v>
       </c>
       <c r="D107" t="n">
-        <v>98623</v>
+        <v>11651314</v>
       </c>
       <c r="E107" t="n">
-        <v>803153</v>
+        <v>63071833</v>
       </c>
     </row>
     <row r="108">
@@ -2242,13 +2242,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>702788</v>
+        <v>51076415</v>
       </c>
       <c r="D108" t="n">
-        <v>106912</v>
+        <v>12917451</v>
       </c>
       <c r="E108" t="n">
-        <v>809700</v>
+        <v>63993866</v>
       </c>
     </row>
     <row r="109">
@@ -2259,13 +2259,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8702365</v>
+        <v>629537593</v>
       </c>
       <c r="D109" t="n">
-        <v>1297968</v>
+        <v>157940463</v>
       </c>
       <c r="E109" t="n">
-        <v>10000333</v>
+        <v>787478056</v>
       </c>
     </row>
     <row r="110">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>681361</v>
+        <v>46305000</v>
       </c>
       <c r="D110" t="n">
-        <v>109621</v>
+        <v>12668763</v>
       </c>
       <c r="E110" t="n">
-        <v>790982</v>
+        <v>58973763</v>
       </c>
     </row>
     <row r="111">
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>625691</v>
+        <v>43657818</v>
       </c>
       <c r="D111" t="n">
-        <v>98560</v>
+        <v>10944610</v>
       </c>
       <c r="E111" t="n">
-        <v>724251</v>
+        <v>54602428</v>
       </c>
     </row>
     <row r="112">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>754851</v>
+        <v>55649428</v>
       </c>
       <c r="D112" t="n">
-        <v>114192</v>
+        <v>13473705</v>
       </c>
       <c r="E112" t="n">
-        <v>869043</v>
+        <v>69123133</v>
       </c>
     </row>
     <row r="113">
@@ -2329,13 +2329,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>720272</v>
+        <v>52858479</v>
       </c>
       <c r="D113" t="n">
-        <v>110620</v>
+        <v>13537152</v>
       </c>
       <c r="E113" t="n">
-        <v>830892</v>
+        <v>66395631</v>
       </c>
     </row>
     <row r="114">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>743929</v>
+        <v>55982234</v>
       </c>
       <c r="D114" t="n">
-        <v>109856</v>
+        <v>13935132</v>
       </c>
       <c r="E114" t="n">
-        <v>853785</v>
+        <v>69917366</v>
       </c>
     </row>
     <row r="115">
@@ -2363,13 +2363,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>756838</v>
+        <v>57778699</v>
       </c>
       <c r="D115" t="n">
-        <v>112313</v>
+        <v>14814672</v>
       </c>
       <c r="E115" t="n">
-        <v>869151</v>
+        <v>72593371</v>
       </c>
     </row>
     <row r="116">
@@ -2380,13 +2380,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>783938</v>
+        <v>60310568</v>
       </c>
       <c r="D116" t="n">
-        <v>122315</v>
+        <v>16623674</v>
       </c>
       <c r="E116" t="n">
-        <v>906253</v>
+        <v>76934242</v>
       </c>
     </row>
     <row r="117">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>768089</v>
+        <v>57403835</v>
       </c>
       <c r="D117" t="n">
-        <v>116831</v>
+        <v>15753438</v>
       </c>
       <c r="E117" t="n">
-        <v>884920</v>
+        <v>73157273</v>
       </c>
     </row>
     <row r="118">
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>706499</v>
+        <v>50982170</v>
       </c>
       <c r="D118" t="n">
-        <v>104962</v>
+        <v>13220884</v>
       </c>
       <c r="E118" t="n">
-        <v>811461</v>
+        <v>64203054</v>
       </c>
     </row>
     <row r="119">
@@ -2431,13 +2431,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>723342</v>
+        <v>54124363</v>
       </c>
       <c r="D119" t="n">
-        <v>106471</v>
+        <v>13199913</v>
       </c>
       <c r="E119" t="n">
-        <v>829813</v>
+        <v>67324276</v>
       </c>
     </row>
     <row r="120">
@@ -2448,13 +2448,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>682775</v>
+        <v>51660083</v>
       </c>
       <c r="D120" t="n">
-        <v>101704</v>
+        <v>12156133</v>
       </c>
       <c r="E120" t="n">
-        <v>784479</v>
+        <v>63816216</v>
       </c>
     </row>
     <row r="121">
@@ -2465,13 +2465,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>701502</v>
+        <v>51534990</v>
       </c>
       <c r="D121" t="n">
-        <v>111934</v>
+        <v>13559050</v>
       </c>
       <c r="E121" t="n">
-        <v>813436</v>
+        <v>65094040</v>
       </c>
     </row>
     <row r="122">
@@ -2482,13 +2482,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8649087</v>
+        <v>638247667</v>
       </c>
       <c r="D122" t="n">
-        <v>1319379</v>
+        <v>163887126</v>
       </c>
       <c r="E122" t="n">
-        <v>9968466</v>
+        <v>802134793</v>
       </c>
     </row>
     <row r="123">
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>677862</v>
+        <v>47080840</v>
       </c>
       <c r="D123" t="n">
-        <v>111741</v>
+        <v>13206801</v>
       </c>
       <c r="E123" t="n">
-        <v>789603</v>
+        <v>60287641</v>
       </c>
     </row>
     <row r="124">
@@ -2518,13 +2518,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>647146</v>
+        <v>46405385</v>
       </c>
       <c r="D124" t="n">
-        <v>104745</v>
+        <v>11732944</v>
       </c>
       <c r="E124" t="n">
-        <v>751891</v>
+        <v>58138329</v>
       </c>
     </row>
     <row r="125">
@@ -2535,13 +2535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>728770</v>
+        <v>56200391</v>
       </c>
       <c r="D125" t="n">
-        <v>117555</v>
+        <v>14387677</v>
       </c>
       <c r="E125" t="n">
-        <v>846325</v>
+        <v>70588068</v>
       </c>
     </row>
     <row r="126">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>707126</v>
+        <v>53691570</v>
       </c>
       <c r="D126" t="n">
-        <v>112750</v>
+        <v>13995377</v>
       </c>
       <c r="E126" t="n">
-        <v>819876</v>
+        <v>67686947</v>
       </c>
     </row>
     <row r="127">
@@ -2569,13 +2569,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>725850</v>
+        <v>55749349</v>
       </c>
       <c r="D127" t="n">
-        <v>114385</v>
+        <v>14291285</v>
       </c>
       <c r="E127" t="n">
-        <v>840235</v>
+        <v>70040634</v>
       </c>
     </row>
     <row r="128">
@@ -2586,13 +2586,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>735215</v>
+        <v>57903293</v>
       </c>
       <c r="D128" t="n">
-        <v>117309</v>
+        <v>15582335</v>
       </c>
       <c r="E128" t="n">
-        <v>852524</v>
+        <v>73485628</v>
       </c>
     </row>
     <row r="129">
@@ -2603,13 +2603,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>757577</v>
+        <v>59688267</v>
       </c>
       <c r="D129" t="n">
-        <v>124934</v>
+        <v>16969590</v>
       </c>
       <c r="E129" t="n">
-        <v>882511</v>
+        <v>76657857</v>
       </c>
     </row>
     <row r="130">
@@ -2620,13 +2620,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>753520</v>
+        <v>58646304</v>
       </c>
       <c r="D130" t="n">
-        <v>123078</v>
+        <v>16616643</v>
       </c>
       <c r="E130" t="n">
-        <v>876598</v>
+        <v>75262947</v>
       </c>
     </row>
     <row r="131">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>678061</v>
+        <v>50134504</v>
       </c>
       <c r="D131" t="n">
-        <v>107311</v>
+        <v>13791714</v>
       </c>
       <c r="E131" t="n">
-        <v>785372</v>
+        <v>63926218</v>
       </c>
     </row>
     <row r="132">
@@ -2654,13 +2654,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>694790</v>
+        <v>53779646</v>
       </c>
       <c r="D132" t="n">
-        <v>106620</v>
+        <v>13397785</v>
       </c>
       <c r="E132" t="n">
-        <v>801410</v>
+        <v>67177431</v>
       </c>
     </row>
     <row r="133">
@@ -2671,13 +2671,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>669357</v>
+        <v>51844482</v>
       </c>
       <c r="D133" t="n">
-        <v>104854</v>
+        <v>12763847</v>
       </c>
       <c r="E133" t="n">
-        <v>774211</v>
+        <v>64608329</v>
       </c>
     </row>
     <row r="134">
@@ -2688,13 +2688,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>670926</v>
+        <v>51165451</v>
       </c>
       <c r="D134" t="n">
-        <v>113805</v>
+        <v>14097885</v>
       </c>
       <c r="E134" t="n">
-        <v>784731</v>
+        <v>65263336</v>
       </c>
     </row>
     <row r="135">
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>8446200</v>
+        <v>642289482</v>
       </c>
       <c r="D135" t="n">
-        <v>1359087</v>
+        <v>170833883</v>
       </c>
       <c r="E135" t="n">
-        <v>9805287</v>
+        <v>813123365</v>
       </c>
     </row>
     <row r="136">
@@ -2724,13 +2724,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>662137</v>
+        <v>47816859</v>
       </c>
       <c r="D136" t="n">
-        <v>115425</v>
+        <v>13768819</v>
       </c>
       <c r="E136" t="n">
-        <v>777562</v>
+        <v>61585678</v>
       </c>
     </row>
     <row r="137">
@@ -2741,13 +2741,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>607674</v>
+        <v>45740158</v>
       </c>
       <c r="D137" t="n">
-        <v>103764</v>
+        <v>12037584</v>
       </c>
       <c r="E137" t="n">
-        <v>711438</v>
+        <v>57777742</v>
       </c>
     </row>
     <row r="138">
@@ -2758,13 +2758,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>710251</v>
+        <v>56564538</v>
       </c>
       <c r="D138" t="n">
-        <v>120765</v>
+        <v>15188333</v>
       </c>
       <c r="E138" t="n">
-        <v>831016</v>
+        <v>71752871</v>
       </c>
     </row>
     <row r="139">
@@ -2775,13 +2775,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>693969</v>
+        <v>53228575</v>
       </c>
       <c r="D139" t="n">
-        <v>115552</v>
+        <v>14301619</v>
       </c>
       <c r="E139" t="n">
-        <v>809521</v>
+        <v>67530194</v>
       </c>
     </row>
     <row r="140">
@@ -2792,13 +2792,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>721525</v>
+        <v>56562929</v>
       </c>
       <c r="D140" t="n">
-        <v>118763</v>
+        <v>15353665</v>
       </c>
       <c r="E140" t="n">
-        <v>840288</v>
+        <v>71916594</v>
       </c>
     </row>
     <row r="141">
@@ -2809,13 +2809,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>719431</v>
+        <v>57990789</v>
       </c>
       <c r="D141" t="n">
-        <v>119376</v>
+        <v>16403199</v>
       </c>
       <c r="E141" t="n">
-        <v>838807</v>
+        <v>74393988</v>
       </c>
     </row>
     <row r="142">
@@ -2826,13 +2826,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>751574</v>
+        <v>59310478</v>
       </c>
       <c r="D142" t="n">
-        <v>127554</v>
+        <v>17748869</v>
       </c>
       <c r="E142" t="n">
-        <v>879128</v>
+        <v>77059347</v>
       </c>
     </row>
     <row r="143">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>747152</v>
+        <v>58115405</v>
       </c>
       <c r="D143" t="n">
-        <v>125665</v>
+        <v>17666442</v>
       </c>
       <c r="E143" t="n">
-        <v>872817</v>
+        <v>75781847</v>
       </c>
     </row>
     <row r="144">
@@ -2860,13 +2860,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>683465</v>
+        <v>50766098</v>
       </c>
       <c r="D144" t="n">
-        <v>108209</v>
+        <v>14368204</v>
       </c>
       <c r="E144" t="n">
-        <v>791674</v>
+        <v>65134302</v>
       </c>
     </row>
     <row r="145">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>708485</v>
+        <v>54706246</v>
       </c>
       <c r="D145" t="n">
-        <v>111647</v>
+        <v>14341721</v>
       </c>
       <c r="E145" t="n">
-        <v>820132</v>
+        <v>69047967</v>
       </c>
     </row>
     <row r="146">
@@ -2894,13 +2894,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>655857</v>
+        <v>50542543</v>
       </c>
       <c r="D146" t="n">
-        <v>107734</v>
+        <v>13260466</v>
       </c>
       <c r="E146" t="n">
-        <v>763591</v>
+        <v>63803009</v>
       </c>
     </row>
     <row r="147">
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>662418</v>
+        <v>54332936</v>
       </c>
       <c r="D147" t="n">
-        <v>116798</v>
+        <v>15205588</v>
       </c>
       <c r="E147" t="n">
-        <v>779216</v>
+        <v>69538524</v>
       </c>
     </row>
     <row r="148">
@@ -2928,13 +2928,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>8323938</v>
+        <v>645677554</v>
       </c>
       <c r="D148" t="n">
-        <v>1391252</v>
+        <v>179644509</v>
       </c>
       <c r="E148" t="n">
-        <v>9715190</v>
+        <v>825322063</v>
       </c>
     </row>
     <row r="149">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>624949</v>
+        <v>47957371</v>
       </c>
       <c r="D149" t="n">
-        <v>116059</v>
+        <v>14692606</v>
       </c>
       <c r="E149" t="n">
-        <v>741008</v>
+        <v>62649977</v>
       </c>
     </row>
     <row r="150">
@@ -2964,13 +2964,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>577281</v>
+        <v>45513184</v>
       </c>
       <c r="D150" t="n">
-        <v>103775</v>
+        <v>12482600</v>
       </c>
       <c r="E150" t="n">
-        <v>681056</v>
+        <v>57995784</v>
       </c>
     </row>
     <row r="151">
@@ -2981,13 +2981,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>696466</v>
+        <v>57762170</v>
       </c>
       <c r="D151" t="n">
-        <v>124874</v>
+        <v>15604456</v>
       </c>
       <c r="E151" t="n">
-        <v>821340</v>
+        <v>73366626</v>
       </c>
     </row>
     <row r="152">
@@ -2998,13 +2998,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>676427</v>
+        <v>55247482</v>
       </c>
       <c r="D152" t="n">
-        <v>119965</v>
+        <v>15471267</v>
       </c>
       <c r="E152" t="n">
-        <v>796392</v>
+        <v>70718749</v>
       </c>
     </row>
     <row r="153">
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>695943</v>
+        <v>57888637</v>
       </c>
       <c r="D153" t="n">
-        <v>122536</v>
+        <v>16338378</v>
       </c>
       <c r="E153" t="n">
-        <v>818479</v>
+        <v>74227015</v>
       </c>
     </row>
     <row r="154">
@@ -3032,13 +3032,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>702089</v>
+        <v>59262095</v>
       </c>
       <c r="D154" t="n">
-        <v>126394</v>
+        <v>17361717</v>
       </c>
       <c r="E154" t="n">
-        <v>828483</v>
+        <v>76623812</v>
       </c>
     </row>
     <row r="155">
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>735523</v>
+        <v>61757698</v>
       </c>
       <c r="D155" t="n">
-        <v>134191</v>
+        <v>18784523</v>
       </c>
       <c r="E155" t="n">
-        <v>869714</v>
+        <v>80542221</v>
       </c>
     </row>
     <row r="156">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>724088</v>
+        <v>59758814</v>
       </c>
       <c r="D156" t="n">
-        <v>130577</v>
+        <v>18784355</v>
       </c>
       <c r="E156" t="n">
-        <v>854665</v>
+        <v>78543169</v>
       </c>
     </row>
     <row r="157">
@@ -3083,13 +3083,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>665581</v>
+        <v>52529472</v>
       </c>
       <c r="D157" t="n">
-        <v>111093</v>
+        <v>14985203</v>
       </c>
       <c r="E157" t="n">
-        <v>776674</v>
+        <v>67514675</v>
       </c>
     </row>
     <row r="158">
@@ -3100,13 +3100,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>694036</v>
+        <v>57084923</v>
       </c>
       <c r="D158" t="n">
-        <v>112478</v>
+        <v>14981228</v>
       </c>
       <c r="E158" t="n">
-        <v>806514</v>
+        <v>72066151</v>
       </c>
     </row>
     <row r="159">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>649019</v>
+        <v>52578037</v>
       </c>
       <c r="D159" t="n">
-        <v>110523</v>
+        <v>13730768</v>
       </c>
       <c r="E159" t="n">
-        <v>759542</v>
+        <v>66308805</v>
       </c>
     </row>
     <row r="160">
@@ -3134,13 +3134,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>666401</v>
+        <v>55487072</v>
       </c>
       <c r="D160" t="n">
-        <v>121656</v>
+        <v>15805756</v>
       </c>
       <c r="E160" t="n">
-        <v>788057</v>
+        <v>71292828</v>
       </c>
     </row>
     <row r="161">
@@ -3151,13 +3151,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>8107803</v>
+        <v>662826955</v>
       </c>
       <c r="D161" t="n">
-        <v>1434121</v>
+        <v>189022857</v>
       </c>
       <c r="E161" t="n">
-        <v>9541924</v>
+        <v>851849812</v>
       </c>
     </row>
     <row r="162">
@@ -3170,13 +3170,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>634868</v>
+        <v>49727992</v>
       </c>
       <c r="D162" t="n">
-        <v>120629</v>
+        <v>15467163</v>
       </c>
       <c r="E162" t="n">
-        <v>755497</v>
+        <v>65195155</v>
       </c>
     </row>
     <row r="163">
@@ -3187,13 +3187,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>570076</v>
+        <v>47164898</v>
       </c>
       <c r="D163" t="n">
-        <v>107407</v>
+        <v>13325293</v>
       </c>
       <c r="E163" t="n">
-        <v>677483</v>
+        <v>60490191</v>
       </c>
     </row>
     <row r="164">
@@ -3204,13 +3204,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>684009</v>
+        <v>59557626</v>
       </c>
       <c r="D164" t="n">
-        <v>124658</v>
+        <v>16342061</v>
       </c>
       <c r="E164" t="n">
-        <v>808667</v>
+        <v>75899687</v>
       </c>
     </row>
     <row r="165">
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>669870</v>
+        <v>57698342</v>
       </c>
       <c r="D165" t="n">
-        <v>122749</v>
+        <v>16025595</v>
       </c>
       <c r="E165" t="n">
-        <v>792619</v>
+        <v>73723937</v>
       </c>
     </row>
     <row r="166">
@@ -3238,13 +3238,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>690230</v>
+        <v>60252607</v>
       </c>
       <c r="D166" t="n">
-        <v>125341</v>
+        <v>17115194</v>
       </c>
       <c r="E166" t="n">
-        <v>815571</v>
+        <v>77367801</v>
       </c>
     </row>
     <row r="167">
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>697511</v>
+        <v>61811276</v>
       </c>
       <c r="D167" t="n">
-        <v>127980</v>
+        <v>18203199</v>
       </c>
       <c r="E167" t="n">
-        <v>825491</v>
+        <v>80014475</v>
       </c>
     </row>
     <row r="168">
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>732894</v>
+        <v>65129348</v>
       </c>
       <c r="D168" t="n">
-        <v>137374</v>
+        <v>20215002</v>
       </c>
       <c r="E168" t="n">
-        <v>870268</v>
+        <v>85344350</v>
       </c>
     </row>
     <row r="169">
@@ -3289,13 +3289,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>724134</v>
+        <v>62770806</v>
       </c>
       <c r="D169" t="n">
-        <v>134508</v>
+        <v>19914264</v>
       </c>
       <c r="E169" t="n">
-        <v>858642</v>
+        <v>82685070</v>
       </c>
     </row>
     <row r="170">
@@ -3306,13 +3306,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>658506</v>
+        <v>55989599</v>
       </c>
       <c r="D170" t="n">
-        <v>115656</v>
+        <v>16111956</v>
       </c>
       <c r="E170" t="n">
-        <v>774162</v>
+        <v>72101555</v>
       </c>
     </row>
     <row r="171">
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>687829</v>
+        <v>60892617</v>
       </c>
       <c r="D171" t="n">
-        <v>117640</v>
+        <v>16188843</v>
       </c>
       <c r="E171" t="n">
-        <v>805469</v>
+        <v>77081460</v>
       </c>
     </row>
     <row r="172">
@@ -3340,13 +3340,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>651293</v>
+        <v>57150828</v>
       </c>
       <c r="D172" t="n">
-        <v>112641</v>
+        <v>14846611</v>
       </c>
       <c r="E172" t="n">
-        <v>763934</v>
+        <v>71997439</v>
       </c>
     </row>
     <row r="173">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>659939</v>
+        <v>57870955</v>
       </c>
       <c r="D173" t="n">
-        <v>125856</v>
+        <v>16859827</v>
       </c>
       <c r="E173" t="n">
-        <v>785795</v>
+        <v>74730782</v>
       </c>
     </row>
     <row r="174">
@@ -3374,13 +3374,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>8061159</v>
+        <v>696016894</v>
       </c>
       <c r="D174" t="n">
-        <v>1472439</v>
+        <v>200615008</v>
       </c>
       <c r="E174" t="n">
-        <v>9533598</v>
+        <v>896631902</v>
       </c>
     </row>
     <row r="175">
@@ -3393,13 +3393,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>636907</v>
+        <v>52474245</v>
       </c>
       <c r="D175" t="n">
-        <v>124593</v>
+        <v>16492079</v>
       </c>
       <c r="E175" t="n">
-        <v>761500</v>
+        <v>68966324</v>
       </c>
     </row>
     <row r="176">
@@ -3410,13 +3410,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>612287</v>
+        <v>51111616</v>
       </c>
       <c r="D176" t="n">
-        <v>115907</v>
+        <v>14421545</v>
       </c>
       <c r="E176" t="n">
-        <v>728194</v>
+        <v>65533161</v>
       </c>
     </row>
     <row r="177">
@@ -3427,13 +3427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>697968</v>
+        <v>61593610</v>
       </c>
       <c r="D177" t="n">
-        <v>129902</v>
+        <v>17382692</v>
       </c>
       <c r="E177" t="n">
-        <v>827870</v>
+        <v>78976302</v>
       </c>
     </row>
     <row r="178">
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>675765</v>
+        <v>58894278</v>
       </c>
       <c r="D178" t="n">
-        <v>125577</v>
+        <v>16596730</v>
       </c>
       <c r="E178" t="n">
-        <v>801342</v>
+        <v>75491008</v>
       </c>
     </row>
     <row r="179">
@@ -3461,13 +3461,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>703076</v>
+        <v>62752723</v>
       </c>
       <c r="D179" t="n">
-        <v>129532</v>
+        <v>17868001</v>
       </c>
       <c r="E179" t="n">
-        <v>832608</v>
+        <v>80620724</v>
       </c>
     </row>
     <row r="180">
@@ -3478,13 +3478,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>713782</v>
+        <v>64757943</v>
       </c>
       <c r="D180" t="n">
-        <v>134111</v>
+        <v>19407251</v>
       </c>
       <c r="E180" t="n">
-        <v>847893</v>
+        <v>84165194</v>
       </c>
     </row>
     <row r="181">
@@ -3495,13 +3495,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>731220</v>
+        <v>66135126</v>
       </c>
       <c r="D181" t="n">
-        <v>141593</v>
+        <v>21435123</v>
       </c>
       <c r="E181" t="n">
-        <v>872813</v>
+        <v>87570249</v>
       </c>
     </row>
     <row r="182">
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>732136</v>
+        <v>63498615</v>
       </c>
       <c r="D182" t="n">
-        <v>138002</v>
+        <v>20654207</v>
       </c>
       <c r="E182" t="n">
-        <v>870138</v>
+        <v>84152822</v>
       </c>
     </row>
     <row r="183">
@@ -3529,13 +3529,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>673306</v>
+        <v>58620581</v>
       </c>
       <c r="D183" t="n">
-        <v>121347</v>
+        <v>17161889</v>
       </c>
       <c r="E183" t="n">
-        <v>794653</v>
+        <v>75782470</v>
       </c>
     </row>
     <row r="184">
@@ -3546,13 +3546,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>688482</v>
+        <v>61709421</v>
       </c>
       <c r="D184" t="n">
-        <v>122035</v>
+        <v>16905446</v>
       </c>
       <c r="E184" t="n">
-        <v>810517</v>
+        <v>78614867</v>
       </c>
     </row>
     <row r="185">
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>658300</v>
+        <v>59269837</v>
       </c>
       <c r="D185" t="n">
-        <v>116261</v>
+        <v>15653035</v>
       </c>
       <c r="E185" t="n">
-        <v>774561</v>
+        <v>74922872</v>
       </c>
     </row>
     <row r="186">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>662304</v>
+        <v>59178833</v>
       </c>
       <c r="D186" t="n">
-        <v>132016</v>
+        <v>18014473</v>
       </c>
       <c r="E186" t="n">
-        <v>794320</v>
+        <v>77193306</v>
       </c>
     </row>
     <row r="187">
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>8185533</v>
+        <v>719996828</v>
       </c>
       <c r="D187" t="n">
-        <v>1530876</v>
+        <v>211992471</v>
       </c>
       <c r="E187" t="n">
-        <v>9716409</v>
+        <v>931989299</v>
       </c>
     </row>
     <row r="188">
@@ -3616,13 +3616,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>645310</v>
+        <v>54109329</v>
       </c>
       <c r="D188" t="n">
-        <v>130527</v>
+        <v>17488782</v>
       </c>
       <c r="E188" t="n">
-        <v>775837</v>
+        <v>71598111</v>
       </c>
     </row>
     <row r="189">
@@ -3633,13 +3633,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>592178</v>
+        <v>51078172</v>
       </c>
       <c r="D189" t="n">
-        <v>115846</v>
+        <v>14709988</v>
       </c>
       <c r="E189" t="n">
-        <v>708024</v>
+        <v>65788160</v>
       </c>
     </row>
     <row r="190">
@@ -3650,13 +3650,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>697139</v>
+        <v>63963808</v>
       </c>
       <c r="D190" t="n">
-        <v>133578</v>
+        <v>17910122</v>
       </c>
       <c r="E190" t="n">
-        <v>830717</v>
+        <v>81873930</v>
       </c>
     </row>
     <row r="191">
@@ -3667,13 +3667,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>673496</v>
+        <v>61099004</v>
       </c>
       <c r="D191" t="n">
-        <v>132161</v>
+        <v>18686523</v>
       </c>
       <c r="E191" t="n">
-        <v>805657</v>
+        <v>79785527</v>
       </c>
     </row>
     <row r="192">
@@ -3684,13 +3684,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>706879</v>
+        <v>64442977</v>
       </c>
       <c r="D192" t="n">
-        <v>133635</v>
+        <v>18865393</v>
       </c>
       <c r="E192" t="n">
-        <v>840514</v>
+        <v>83308370</v>
       </c>
     </row>
     <row r="193">
@@ -3701,13 +3701,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>718964</v>
+        <v>66746463</v>
       </c>
       <c r="D193" t="n">
-        <v>139509</v>
+        <v>20676407</v>
       </c>
       <c r="E193" t="n">
-        <v>858473</v>
+        <v>87422870</v>
       </c>
     </row>
     <row r="194">
@@ -3718,13 +3718,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>739698</v>
+        <v>68575481</v>
       </c>
       <c r="D194" t="n">
-        <v>148978</v>
+        <v>22690243</v>
       </c>
       <c r="E194" t="n">
-        <v>888676</v>
+        <v>91265724</v>
       </c>
     </row>
     <row r="195">
@@ -3735,13 +3735,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>735373</v>
+        <v>66664019</v>
       </c>
       <c r="D195" t="n">
-        <v>143817</v>
+        <v>22013119</v>
       </c>
       <c r="E195" t="n">
-        <v>879190</v>
+        <v>88677138</v>
       </c>
     </row>
     <row r="196">
@@ -3752,13 +3752,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>652125</v>
+        <v>57144508</v>
       </c>
       <c r="D196" t="n">
-        <v>120216</v>
+        <v>17438756</v>
       </c>
       <c r="E196" t="n">
-        <v>772341</v>
+        <v>74583264</v>
       </c>
     </row>
     <row r="197">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>692098</v>
+        <v>64625405</v>
       </c>
       <c r="D197" t="n">
-        <v>125356</v>
+        <v>17604236</v>
       </c>
       <c r="E197" t="n">
-        <v>817454</v>
+        <v>82229641</v>
       </c>
     </row>
     <row r="198">
@@ -3786,13 +3786,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>657045</v>
+        <v>61911765</v>
       </c>
       <c r="D198" t="n">
-        <v>119492</v>
+        <v>16476642</v>
       </c>
       <c r="E198" t="n">
-        <v>776537</v>
+        <v>78388407</v>
       </c>
     </row>
     <row r="199">
@@ -3803,13 +3803,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>667329</v>
+        <v>61374167</v>
       </c>
       <c r="D199" t="n">
-        <v>133336</v>
+        <v>18469636</v>
       </c>
       <c r="E199" t="n">
-        <v>800665</v>
+        <v>79843803</v>
       </c>
     </row>
     <row r="200">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8177634</v>
+        <v>741735098</v>
       </c>
       <c r="D200" t="n">
-        <v>1576451</v>
+        <v>223029847</v>
       </c>
       <c r="E200" t="n">
-        <v>9754085</v>
+        <v>964764945</v>
       </c>
     </row>
     <row r="201">
@@ -3839,13 +3839,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>653473</v>
+        <v>55831159</v>
       </c>
       <c r="D201" t="n">
-        <v>130395</v>
+        <v>17897787</v>
       </c>
       <c r="E201" t="n">
-        <v>783868</v>
+        <v>73728946</v>
       </c>
     </row>
     <row r="202">
@@ -3856,13 +3856,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>600589</v>
+        <v>54078219</v>
       </c>
       <c r="D202" t="n">
-        <v>117355</v>
+        <v>15720901</v>
       </c>
       <c r="E202" t="n">
-        <v>717944</v>
+        <v>69799120</v>
       </c>
     </row>
     <row r="203">
@@ -3873,13 +3873,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>698586</v>
+        <v>66644135</v>
       </c>
       <c r="D203" t="n">
-        <v>137031</v>
+        <v>19716774</v>
       </c>
       <c r="E203" t="n">
-        <v>835617</v>
+        <v>86360909</v>
       </c>
     </row>
     <row r="204">
@@ -3890,13 +3890,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>695423</v>
+        <v>64557780</v>
       </c>
       <c r="D204" t="n">
-        <v>133966</v>
+        <v>19111955</v>
       </c>
       <c r="E204" t="n">
-        <v>829389</v>
+        <v>83669735</v>
       </c>
     </row>
     <row r="205">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>724208</v>
+        <v>67846119</v>
       </c>
       <c r="D205" t="n">
-        <v>138609</v>
+        <v>20126585</v>
       </c>
       <c r="E205" t="n">
-        <v>862817</v>
+        <v>87972704</v>
       </c>
     </row>
     <row r="206">
@@ -3924,13 +3924,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>732441</v>
+        <v>70279158</v>
       </c>
       <c r="D206" t="n">
-        <v>144232</v>
+        <v>22046732</v>
       </c>
       <c r="E206" t="n">
-        <v>876673</v>
+        <v>92325890</v>
       </c>
     </row>
     <row r="207">
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>760030</v>
+        <v>72540389</v>
       </c>
       <c r="D207" t="n">
-        <v>152077</v>
+        <v>23754573</v>
       </c>
       <c r="E207" t="n">
-        <v>912107</v>
+        <v>96294962</v>
       </c>
     </row>
     <row r="208">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>756497</v>
+        <v>70338563</v>
       </c>
       <c r="D208" t="n">
-        <v>147408</v>
+        <v>22909627</v>
       </c>
       <c r="E208" t="n">
-        <v>903905</v>
+        <v>93248190</v>
       </c>
     </row>
     <row r="209">
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>686550</v>
+        <v>60468575</v>
       </c>
       <c r="D209" t="n">
-        <v>129584</v>
+        <v>18051374</v>
       </c>
       <c r="E209" t="n">
-        <v>816134</v>
+        <v>78519949</v>
       </c>
     </row>
     <row r="210">
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>722759</v>
+        <v>67082086</v>
       </c>
       <c r="D210" t="n">
-        <v>131596</v>
+        <v>18830854</v>
       </c>
       <c r="E210" t="n">
-        <v>854355</v>
+        <v>85912940</v>
       </c>
     </row>
     <row r="211">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>678245</v>
+        <v>64660022</v>
       </c>
       <c r="D211" t="n">
-        <v>124731</v>
+        <v>17552376</v>
       </c>
       <c r="E211" t="n">
-        <v>802976</v>
+        <v>82212398</v>
       </c>
     </row>
     <row r="212">
@@ -4026,13 +4026,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>691174</v>
+        <v>63646582</v>
       </c>
       <c r="D212" t="n">
-        <v>138437</v>
+        <v>19520179</v>
       </c>
       <c r="E212" t="n">
-        <v>829611</v>
+        <v>83166761</v>
       </c>
     </row>
     <row r="213">
@@ -4043,13 +4043,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>8399975</v>
+        <v>777972787</v>
       </c>
       <c r="D213" t="n">
-        <v>1625421</v>
+        <v>235239717</v>
       </c>
       <c r="E213" t="n">
-        <v>10025396</v>
+        <v>1013212504</v>
       </c>
     </row>
     <row r="214">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>667659</v>
+        <v>58034262</v>
       </c>
       <c r="D214" t="n">
-        <v>135773</v>
+        <v>18690817</v>
       </c>
       <c r="E214" t="n">
-        <v>803432</v>
+        <v>76725079</v>
       </c>
     </row>
     <row r="215">
@@ -4079,13 +4079,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>608029</v>
+        <v>55679481</v>
       </c>
       <c r="D215" t="n">
-        <v>119724</v>
+        <v>16280536</v>
       </c>
       <c r="E215" t="n">
-        <v>727753</v>
+        <v>71960017</v>
       </c>
     </row>
     <row r="216">
@@ -4096,13 +4096,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>729251</v>
+        <v>70234129</v>
       </c>
       <c r="D216" t="n">
-        <v>140966</v>
+        <v>20295947</v>
       </c>
       <c r="E216" t="n">
-        <v>870217</v>
+        <v>90530076</v>
       </c>
     </row>
     <row r="217">
@@ -4113,13 +4113,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>709126</v>
+        <v>66938654</v>
       </c>
       <c r="D217" t="n">
-        <v>141759</v>
+        <v>20019304</v>
       </c>
       <c r="E217" t="n">
-        <v>850885</v>
+        <v>86957958</v>
       </c>
     </row>
     <row r="218">
@@ -4130,13 +4130,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>740639</v>
+        <v>71364145</v>
       </c>
       <c r="D218" t="n">
-        <v>139760</v>
+        <v>20995113</v>
       </c>
       <c r="E218" t="n">
-        <v>880399</v>
+        <v>92359258</v>
       </c>
     </row>
     <row r="219">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>741605</v>
+        <v>72790418</v>
       </c>
       <c r="D219" t="n">
-        <v>144559</v>
+        <v>22747453</v>
       </c>
       <c r="E219" t="n">
-        <v>886164</v>
+        <v>95537871</v>
       </c>
     </row>
     <row r="220">
@@ -4164,13 +4164,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>768825</v>
+        <v>75281916</v>
       </c>
       <c r="D220" t="n">
-        <v>151106</v>
+        <v>23907859</v>
       </c>
       <c r="E220" t="n">
-        <v>919931</v>
+        <v>99189775</v>
       </c>
     </row>
     <row r="221">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>769850</v>
+        <v>72729199</v>
       </c>
       <c r="D221" t="n">
-        <v>147707</v>
+        <v>23239180</v>
       </c>
       <c r="E221" t="n">
-        <v>917557</v>
+        <v>95968379</v>
       </c>
     </row>
     <row r="222">
@@ -4198,13 +4198,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>705233</v>
+        <v>63991365</v>
       </c>
       <c r="D222" t="n">
-        <v>123258</v>
+        <v>18842310</v>
       </c>
       <c r="E222" t="n">
-        <v>828491</v>
+        <v>82833675</v>
       </c>
     </row>
     <row r="223">
@@ -4215,13 +4215,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>740347</v>
+        <v>69936836</v>
       </c>
       <c r="D223" t="n">
-        <v>127012</v>
+        <v>18982654</v>
       </c>
       <c r="E223" t="n">
-        <v>867359</v>
+        <v>88919490</v>
       </c>
     </row>
     <row r="224">
@@ -4232,13 +4232,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>694547</v>
+        <v>64827417</v>
       </c>
       <c r="D224" t="n">
-        <v>120443</v>
+        <v>17575113</v>
       </c>
       <c r="E224" t="n">
-        <v>814990</v>
+        <v>82402530</v>
       </c>
     </row>
     <row r="225">
@@ -4249,13 +4249,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>721601</v>
+        <v>69737438</v>
       </c>
       <c r="D225" t="n">
-        <v>131526</v>
+        <v>19859635</v>
       </c>
       <c r="E225" t="n">
-        <v>853127</v>
+        <v>89597073</v>
       </c>
     </row>
     <row r="226">
@@ -4266,13 +4266,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>8596712</v>
+        <v>811545260</v>
       </c>
       <c r="D226" t="n">
-        <v>1623593</v>
+        <v>241435921</v>
       </c>
       <c r="E226" t="n">
-        <v>10220305</v>
+        <v>1052981181</v>
       </c>
     </row>
     <row r="227">
@@ -4285,13 +4285,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>700688</v>
+        <v>61638893</v>
       </c>
       <c r="D227" t="n">
-        <v>129449</v>
+        <v>18955398</v>
       </c>
       <c r="E227" t="n">
-        <v>830137</v>
+        <v>80594291</v>
       </c>
     </row>
     <row r="228">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>660494</v>
+        <v>59879630</v>
       </c>
       <c r="D228" t="n">
-        <v>115515</v>
+        <v>15829198</v>
       </c>
       <c r="E228" t="n">
-        <v>776009</v>
+        <v>75708828</v>
       </c>
     </row>
     <row r="229">
@@ -4319,13 +4319,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>616265</v>
+        <v>34420555</v>
       </c>
       <c r="D229" t="n">
-        <v>88243</v>
+        <v>8956945</v>
       </c>
       <c r="E229" t="n">
-        <v>704508</v>
+        <v>43377500</v>
       </c>
     </row>
     <row r="230">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>217304</v>
+        <v>2879712</v>
       </c>
       <c r="D230" t="n">
-        <v>9044</v>
+        <v>401329</v>
       </c>
       <c r="E230" t="n">
-        <v>226348</v>
+        <v>3281041</v>
       </c>
     </row>
     <row r="231">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>209790</v>
+        <v>7861491</v>
       </c>
       <c r="D231" t="n">
-        <v>7861</v>
+        <v>372915</v>
       </c>
       <c r="E231" t="n">
-        <v>217651</v>
+        <v>8234406</v>
       </c>
     </row>
     <row r="232">
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>272424</v>
+        <v>16132885</v>
       </c>
       <c r="D232" t="n">
-        <v>11788</v>
+        <v>803948</v>
       </c>
       <c r="E232" t="n">
-        <v>284212</v>
+        <v>16936833</v>
       </c>
     </row>
     <row r="233">
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>411261</v>
+        <v>22922158</v>
       </c>
       <c r="D233" t="n">
-        <v>25322</v>
+        <v>1862122</v>
       </c>
       <c r="E233" t="n">
-        <v>436583</v>
+        <v>24784280</v>
       </c>
     </row>
     <row r="234">
@@ -4404,13 +4404,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>441660</v>
+        <v>24431822</v>
       </c>
       <c r="D234" t="n">
-        <v>28447</v>
+        <v>2298093</v>
       </c>
       <c r="E234" t="n">
-        <v>470107</v>
+        <v>26729915</v>
       </c>
     </row>
     <row r="235">
@@ -4421,13 +4421,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>379538</v>
+        <v>23854772</v>
       </c>
       <c r="D235" t="n">
-        <v>29159</v>
+        <v>2280598</v>
       </c>
       <c r="E235" t="n">
-        <v>408697</v>
+        <v>26135370</v>
       </c>
     </row>
     <row r="236">
@@ -4438,13 +4438,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>410253</v>
+        <v>28027209</v>
       </c>
       <c r="D236" t="n">
-        <v>35732</v>
+        <v>2969651</v>
       </c>
       <c r="E236" t="n">
-        <v>445985</v>
+        <v>30996860</v>
       </c>
     </row>
     <row r="237">
@@ -4455,13 +4455,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>421104</v>
+        <v>26294514</v>
       </c>
       <c r="D237" t="n">
-        <v>42545</v>
+        <v>3553139</v>
       </c>
       <c r="E237" t="n">
-        <v>463649</v>
+        <v>29847653</v>
       </c>
     </row>
     <row r="238">
@@ -4472,13 +4472,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>428824</v>
+        <v>27264199</v>
       </c>
       <c r="D238" t="n">
-        <v>54677</v>
+        <v>4763815</v>
       </c>
       <c r="E238" t="n">
-        <v>483501</v>
+        <v>32028014</v>
       </c>
     </row>
     <row r="239">
@@ -4489,13 +4489,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5169605</v>
+        <v>335607840</v>
       </c>
       <c r="D239" t="n">
-        <v>577782</v>
+        <v>63047151</v>
       </c>
       <c r="E239" t="n">
-        <v>5747387</v>
+        <v>398654991</v>
       </c>
     </row>
     <row r="240">
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>408891</v>
+        <v>24305908</v>
       </c>
       <c r="D240" t="n">
-        <v>56760</v>
+        <v>4504353</v>
       </c>
       <c r="E240" t="n">
-        <v>465651</v>
+        <v>28810261</v>
       </c>
     </row>
     <row r="241">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>361719</v>
+        <v>24483505</v>
       </c>
       <c r="D241" t="n">
-        <v>45722</v>
+        <v>2994388</v>
       </c>
       <c r="E241" t="n">
-        <v>407441</v>
+        <v>27477893</v>
       </c>
     </row>
     <row r="242">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>499419</v>
+        <v>39343495</v>
       </c>
       <c r="D242" t="n">
-        <v>53658</v>
+        <v>4616871</v>
       </c>
       <c r="E242" t="n">
-        <v>553077</v>
+        <v>43960366</v>
       </c>
     </row>
     <row r="243">
@@ -4559,13 +4559,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>514307</v>
+        <v>43798946</v>
       </c>
       <c r="D243" t="n">
-        <v>55108</v>
+        <v>5496300</v>
       </c>
       <c r="E243" t="n">
-        <v>569415</v>
+        <v>49295246</v>
       </c>
     </row>
     <row r="244">
@@ -4576,13 +4576,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>565829</v>
+        <v>52752164</v>
       </c>
       <c r="D244" t="n">
-        <v>61806</v>
+        <v>7010140</v>
       </c>
       <c r="E244" t="n">
-        <v>627635</v>
+        <v>59762304</v>
       </c>
     </row>
     <row r="245">
@@ -4593,13 +4593,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>617825</v>
+        <v>60110694</v>
       </c>
       <c r="D245" t="n">
-        <v>71233</v>
+        <v>8974037</v>
       </c>
       <c r="E245" t="n">
-        <v>689058</v>
+        <v>69084731</v>
       </c>
     </row>
     <row r="246">
@@ -4610,13 +4610,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>664438</v>
+        <v>66739881</v>
       </c>
       <c r="D246" t="n">
-        <v>78934</v>
+        <v>10811152</v>
       </c>
       <c r="E246" t="n">
-        <v>743372</v>
+        <v>77551033</v>
       </c>
     </row>
     <row r="247">
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>661984</v>
+        <v>60630877</v>
       </c>
       <c r="D247" t="n">
-        <v>79873</v>
+        <v>10515856</v>
       </c>
       <c r="E247" t="n">
-        <v>741857</v>
+        <v>71146733</v>
       </c>
     </row>
     <row r="248">
@@ -4644,13 +4644,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>610270</v>
+        <v>53902404</v>
       </c>
       <c r="D248" t="n">
-        <v>72964</v>
+        <v>8247453</v>
       </c>
       <c r="E248" t="n">
-        <v>683234</v>
+        <v>62149857</v>
       </c>
     </row>
     <row r="249">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>630163</v>
+        <v>60547953</v>
       </c>
       <c r="D249" t="n">
-        <v>79136</v>
+        <v>8756886</v>
       </c>
       <c r="E249" t="n">
-        <v>709299</v>
+        <v>69304839</v>
       </c>
     </row>
     <row r="250">
@@ -4678,13 +4678,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>617744</v>
+        <v>59778784</v>
       </c>
       <c r="D250" t="n">
-        <v>83961</v>
+        <v>10170801</v>
       </c>
       <c r="E250" t="n">
-        <v>701705</v>
+        <v>69949585</v>
       </c>
     </row>
     <row r="251">
@@ -4695,13 +4695,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>605852</v>
+        <v>59532589</v>
       </c>
       <c r="D251" t="n">
-        <v>94171</v>
+        <v>12146115</v>
       </c>
       <c r="E251" t="n">
-        <v>700023</v>
+        <v>71678704</v>
       </c>
     </row>
     <row r="252">
@@ -4712,13 +4712,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6758441</v>
+        <v>605927200</v>
       </c>
       <c r="D252" t="n">
-        <v>833326</v>
+        <v>94244352</v>
       </c>
       <c r="E252" t="n">
-        <v>7591767</v>
+        <v>700171552</v>
       </c>
     </row>
     <row r="253">
@@ -4731,13 +4731,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>569271</v>
+        <v>45811237</v>
       </c>
       <c r="D253" t="n">
-        <v>93211</v>
+        <v>10133400</v>
       </c>
       <c r="E253" t="n">
-        <v>662482</v>
+        <v>55944637</v>
       </c>
     </row>
     <row r="254">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>532524</v>
+        <v>49067520</v>
       </c>
       <c r="D254" t="n">
-        <v>81222</v>
+        <v>9277529</v>
       </c>
       <c r="E254" t="n">
-        <v>613746</v>
+        <v>58345049</v>
       </c>
     </row>
     <row r="255">
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>625664</v>
+        <v>64515346</v>
       </c>
       <c r="D255" t="n">
-        <v>95505</v>
+        <v>13029847</v>
       </c>
       <c r="E255" t="n">
-        <v>721169</v>
+        <v>77545193</v>
       </c>
     </row>
     <row r="256">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1727459</v>
+        <v>159394103</v>
       </c>
       <c r="D256" t="n">
-        <v>269938</v>
+        <v>32440776</v>
       </c>
       <c r="E256" t="n">
-        <v>1997397</v>
+        <v>191834879</v>
       </c>
     </row>
   </sheetData>
